--- a/natmiOut/OldD0/LR-pairs_lrc2p/Fgf7-Fgfr3.xlsx
+++ b/natmiOut/OldD0/LR-pairs_lrc2p/Fgf7-Fgfr3.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="25">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,6 +76,9 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>ECs</t>
+  </si>
+  <si>
     <t>FAPs</t>
   </si>
   <si>
@@ -86,9 +89,6 @@
   </si>
   <si>
     <t>Fgfr3</t>
-  </si>
-  <si>
-    <t>ECs</t>
   </si>
 </sst>
 </file>
@@ -446,7 +446,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T5"/>
+  <dimension ref="A1:T10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -519,61 +519,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D2" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G2">
-        <v>17.3513948631163</v>
+        <v>0.245245</v>
       </c>
       <c r="H2">
-        <v>17.3513948631163</v>
+        <v>0.735735</v>
       </c>
       <c r="I2">
-        <v>0.9381934616994375</v>
+        <v>0.0130094690177091</v>
       </c>
       <c r="J2">
-        <v>0.9381934616994375</v>
+        <v>0.0130094690177091</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>1.10160923502586</v>
+        <v>1.656156333333334</v>
       </c>
       <c r="N2">
-        <v>1.10160923502586</v>
+        <v>4.968469000000001</v>
       </c>
       <c r="O2">
-        <v>0.7378047186693026</v>
+        <v>0.6151212440816572</v>
       </c>
       <c r="P2">
-        <v>0.7378047186693026</v>
+        <v>0.6151212440816572</v>
       </c>
       <c r="Q2">
-        <v>19.11445682178918</v>
+        <v>0.4061640599683334</v>
       </c>
       <c r="R2">
-        <v>19.11445682178918</v>
+        <v>3.655476539715001</v>
       </c>
       <c r="S2">
-        <v>0.6922035630665326</v>
+        <v>0.008002400767014996</v>
       </c>
       <c r="T2">
-        <v>0.6922035630665326</v>
+        <v>0.008002400767014996</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -581,123 +581,123 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D3" t="s">
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G3">
-        <v>17.3513948631163</v>
+        <v>0.245245</v>
       </c>
       <c r="H3">
-        <v>17.3513948631163</v>
+        <v>0.735735</v>
       </c>
       <c r="I3">
-        <v>0.9381934616994375</v>
+        <v>0.0130094690177091</v>
       </c>
       <c r="J3">
-        <v>0.9381934616994375</v>
+        <v>0.0130094690177091</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L3">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M3">
-        <v>0.391481290354232</v>
+        <v>0.5648773333333333</v>
       </c>
       <c r="N3">
-        <v>0.391481290354232</v>
+        <v>1.694632</v>
       </c>
       <c r="O3">
-        <v>0.2621952813306974</v>
+        <v>0.2098038941373262</v>
       </c>
       <c r="P3">
-        <v>0.2621952813306974</v>
+        <v>0.2098038941373262</v>
       </c>
       <c r="Q3">
-        <v>6.792746450458562</v>
+        <v>0.1385333416133333</v>
       </c>
       <c r="R3">
-        <v>6.792746450458562</v>
+        <v>1.24680007452</v>
       </c>
       <c r="S3">
-        <v>0.2459898986329049</v>
+        <v>0.002729437260574265</v>
       </c>
       <c r="T3">
-        <v>0.2459898986329049</v>
+        <v>0.002729437260574264</v>
       </c>
     </row>
     <row r="4" spans="1:20">
       <c r="A4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C4" t="s">
+        <v>24</v>
+      </c>
+      <c r="D4" t="s">
         <v>22</v>
       </c>
-      <c r="C4" t="s">
-        <v>23</v>
-      </c>
-      <c r="D4" t="s">
-        <v>24</v>
-      </c>
       <c r="E4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G4">
-        <v>1.14307943399306</v>
+        <v>0.245245</v>
       </c>
       <c r="H4">
-        <v>1.14307943399306</v>
+        <v>0.735735</v>
       </c>
       <c r="I4">
-        <v>0.06180653830056258</v>
+        <v>0.0130094690177091</v>
       </c>
       <c r="J4">
-        <v>0.06180653830056258</v>
+        <v>0.0130094690177091</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>1.10160923502586</v>
+        <v>0.4713726666666667</v>
       </c>
       <c r="N4">
-        <v>1.10160923502586</v>
+        <v>1.414118</v>
       </c>
       <c r="O4">
-        <v>0.7378047186693026</v>
+        <v>0.1750748617810164</v>
       </c>
       <c r="P4">
-        <v>0.7378047186693026</v>
+        <v>0.1750748617810165</v>
       </c>
       <c r="Q4">
-        <v>1.259226860854888</v>
+        <v>0.1156017896366667</v>
       </c>
       <c r="R4">
-        <v>1.259226860854888</v>
+        <v>1.04041610673</v>
       </c>
       <c r="S4">
-        <v>0.04560115560277005</v>
+        <v>0.002277630990119836</v>
       </c>
       <c r="T4">
-        <v>0.04560115560277005</v>
+        <v>0.002277630990119836</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -705,61 +705,371 @@
         <v>21</v>
       </c>
       <c r="B5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C5" t="s">
+        <v>24</v>
+      </c>
+      <c r="D5" t="s">
+        <v>20</v>
+      </c>
+      <c r="E5">
+        <v>3</v>
+      </c>
+      <c r="F5">
+        <v>1</v>
+      </c>
+      <c r="G5">
+        <v>17.39906333333333</v>
+      </c>
+      <c r="H5">
+        <v>52.19719000000001</v>
+      </c>
+      <c r="I5">
+        <v>0.9229650976458578</v>
+      </c>
+      <c r="J5">
+        <v>0.9229650976458579</v>
+      </c>
+      <c r="K5">
+        <v>3</v>
+      </c>
+      <c r="L5">
+        <v>1</v>
+      </c>
+      <c r="M5">
+        <v>1.656156333333334</v>
+      </c>
+      <c r="N5">
+        <v>4.968469000000001</v>
+      </c>
+      <c r="O5">
+        <v>0.6151212440816572</v>
+      </c>
+      <c r="P5">
+        <v>0.6151212440816572</v>
+      </c>
+      <c r="Q5">
+        <v>28.81556893356778</v>
+      </c>
+      <c r="R5">
+        <v>259.3401204021101</v>
+      </c>
+      <c r="S5">
+        <v>0.5677354391078683</v>
+      </c>
+      <c r="T5">
+        <v>0.5677354391078684</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
+      <c r="A6" t="s">
+        <v>21</v>
+      </c>
+      <c r="B6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C6" t="s">
+        <v>24</v>
+      </c>
+      <c r="D6" t="s">
+        <v>21</v>
+      </c>
+      <c r="E6">
+        <v>3</v>
+      </c>
+      <c r="F6">
+        <v>1</v>
+      </c>
+      <c r="G6">
+        <v>17.39906333333333</v>
+      </c>
+      <c r="H6">
+        <v>52.19719000000001</v>
+      </c>
+      <c r="I6">
+        <v>0.9229650976458578</v>
+      </c>
+      <c r="J6">
+        <v>0.9229650976458579</v>
+      </c>
+      <c r="K6">
+        <v>2</v>
+      </c>
+      <c r="L6">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M6">
+        <v>0.5648773333333333</v>
+      </c>
+      <c r="N6">
+        <v>1.694632</v>
+      </c>
+      <c r="O6">
+        <v>0.2098038941373262</v>
+      </c>
+      <c r="P6">
+        <v>0.2098038941373262</v>
+      </c>
+      <c r="Q6">
+        <v>9.828336498231112</v>
+      </c>
+      <c r="R6">
+        <v>88.45502848408</v>
+      </c>
+      <c r="S6">
+        <v>0.1936416716389385</v>
+      </c>
+      <c r="T6">
+        <v>0.1936416716389385</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
+      <c r="A7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C7" t="s">
+        <v>24</v>
+      </c>
+      <c r="D7" t="s">
         <v>22</v>
       </c>
-      <c r="C5" t="s">
+      <c r="E7">
+        <v>3</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="G7">
+        <v>17.39906333333333</v>
+      </c>
+      <c r="H7">
+        <v>52.19719000000001</v>
+      </c>
+      <c r="I7">
+        <v>0.9229650976458578</v>
+      </c>
+      <c r="J7">
+        <v>0.9229650976458579</v>
+      </c>
+      <c r="K7">
+        <v>3</v>
+      </c>
+      <c r="L7">
+        <v>1</v>
+      </c>
+      <c r="M7">
+        <v>0.4713726666666667</v>
+      </c>
+      <c r="N7">
+        <v>1.414118</v>
+      </c>
+      <c r="O7">
+        <v>0.1750748617810164</v>
+      </c>
+      <c r="P7">
+        <v>0.1750748617810165</v>
+      </c>
+      <c r="Q7">
+        <v>8.201442880935558</v>
+      </c>
+      <c r="R7">
+        <v>73.81298592842002</v>
+      </c>
+      <c r="S7">
+        <v>0.1615879868990509</v>
+      </c>
+      <c r="T7">
+        <v>0.1615879868990509</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
+      <c r="A8" t="s">
+        <v>22</v>
+      </c>
+      <c r="B8" t="s">
         <v>23</v>
       </c>
-      <c r="D5" t="s">
+      <c r="C8" t="s">
+        <v>24</v>
+      </c>
+      <c r="D8" t="s">
+        <v>20</v>
+      </c>
+      <c r="E8">
+        <v>3</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8">
+        <v>1.206960666666667</v>
+      </c>
+      <c r="H8">
+        <v>3.620882</v>
+      </c>
+      <c r="I8">
+        <v>0.06402543333643303</v>
+      </c>
+      <c r="J8">
+        <v>0.06402543333643303</v>
+      </c>
+      <c r="K8">
+        <v>3</v>
+      </c>
+      <c r="L8">
+        <v>1</v>
+      </c>
+      <c r="M8">
+        <v>1.656156333333334</v>
+      </c>
+      <c r="N8">
+        <v>4.968469000000001</v>
+      </c>
+      <c r="O8">
+        <v>0.6151212440816572</v>
+      </c>
+      <c r="P8">
+        <v>0.6151212440816572</v>
+      </c>
+      <c r="Q8">
+        <v>1.998915552184222</v>
+      </c>
+      <c r="R8">
+        <v>17.990239969658</v>
+      </c>
+      <c r="S8">
+        <v>0.03938340420677389</v>
+      </c>
+      <c r="T8">
+        <v>0.03938340420677389</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="A9" t="s">
+        <v>22</v>
+      </c>
+      <c r="B9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" t="s">
+        <v>24</v>
+      </c>
+      <c r="D9" t="s">
         <v>21</v>
       </c>
-      <c r="E5">
-        <v>1</v>
-      </c>
-      <c r="F5">
-        <v>1</v>
-      </c>
-      <c r="G5">
-        <v>1.14307943399306</v>
-      </c>
-      <c r="H5">
-        <v>1.14307943399306</v>
-      </c>
-      <c r="I5">
-        <v>0.06180653830056258</v>
-      </c>
-      <c r="J5">
-        <v>0.06180653830056258</v>
-      </c>
-      <c r="K5">
-        <v>1</v>
-      </c>
-      <c r="L5">
-        <v>1</v>
-      </c>
-      <c r="M5">
-        <v>0.391481290354232</v>
-      </c>
-      <c r="N5">
-        <v>0.391481290354232</v>
-      </c>
-      <c r="O5">
-        <v>0.2621952813306974</v>
-      </c>
-      <c r="P5">
-        <v>0.2621952813306974</v>
-      </c>
-      <c r="Q5">
-        <v>0.4474942117969883</v>
-      </c>
-      <c r="R5">
-        <v>0.4474942117969883</v>
-      </c>
-      <c r="S5">
-        <v>0.01620538269779253</v>
-      </c>
-      <c r="T5">
-        <v>0.01620538269779253</v>
+      <c r="E9">
+        <v>3</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>1.206960666666667</v>
+      </c>
+      <c r="H9">
+        <v>3.620882</v>
+      </c>
+      <c r="I9">
+        <v>0.06402543333643303</v>
+      </c>
+      <c r="J9">
+        <v>0.06402543333643303</v>
+      </c>
+      <c r="K9">
+        <v>2</v>
+      </c>
+      <c r="L9">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M9">
+        <v>0.5648773333333333</v>
+      </c>
+      <c r="N9">
+        <v>1.694632</v>
+      </c>
+      <c r="O9">
+        <v>0.2098038941373262</v>
+      </c>
+      <c r="P9">
+        <v>0.2098038941373262</v>
+      </c>
+      <c r="Q9">
+        <v>0.6817847228248889</v>
+      </c>
+      <c r="R9">
+        <v>6.136062505423999</v>
+      </c>
+      <c r="S9">
+        <v>0.01343278523781343</v>
+      </c>
+      <c r="T9">
+        <v>0.01343278523781343</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" t="s">
+        <v>23</v>
+      </c>
+      <c r="C10" t="s">
+        <v>24</v>
+      </c>
+      <c r="D10" t="s">
+        <v>22</v>
+      </c>
+      <c r="E10">
+        <v>3</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>1.206960666666667</v>
+      </c>
+      <c r="H10">
+        <v>3.620882</v>
+      </c>
+      <c r="I10">
+        <v>0.06402543333643303</v>
+      </c>
+      <c r="J10">
+        <v>0.06402543333643303</v>
+      </c>
+      <c r="K10">
+        <v>3</v>
+      </c>
+      <c r="L10">
+        <v>1</v>
+      </c>
+      <c r="M10">
+        <v>0.4713726666666667</v>
+      </c>
+      <c r="N10">
+        <v>1.414118</v>
+      </c>
+      <c r="O10">
+        <v>0.1750748617810164</v>
+      </c>
+      <c r="P10">
+        <v>0.1750748617810165</v>
+      </c>
+      <c r="Q10">
+        <v>0.5689282680084444</v>
+      </c>
+      <c r="R10">
+        <v>5.120354412076001</v>
+      </c>
+      <c r="S10">
+        <v>0.0112092438918457</v>
+      </c>
+      <c r="T10">
+        <v>0.0112092438918457</v>
       </c>
     </row>
   </sheetData>
